--- a/File/Lab01/Nhom01_release1.zip_Test-Case.xlsx
+++ b/File/Lab01/Nhom01_release1.zip_Test-Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BICH-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tku Sang\Desktop\New folder\MoneyLover\File\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{695E060D-BF9E-4775-BDD3-5C871ED03A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B10F54-59F8-4C2A-BFCA-75B0F258646B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -115,12 +115,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -143,12 +143,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -537,12 +537,6 @@
     <t>Đăng ký thành công</t>
   </si>
   <si>
-    <t>Gửi thêm tiền thành công</t>
-  </si>
-  <si>
-    <t>Thêm tiền vào sổ thành công</t>
-  </si>
-  <si>
     <t>TD004</t>
   </si>
   <si>
@@ -555,19 +549,10 @@
     <t>&lt; 8</t>
   </si>
   <si>
-    <t>Không được đăng ký</t>
-  </si>
-  <si>
     <t>&lt; 1000000</t>
   </si>
   <si>
     <t>&lt;100000</t>
-  </si>
-  <si>
-    <t>Không thêm sổ tiết kiệm được</t>
-  </si>
-  <si>
-    <t>Không được gửi thêm</t>
   </si>
   <si>
     <t xml:space="preserve">1. Bắt đầu khi user chọn "Sửa"  
@@ -617,13 +602,25 @@
   <si>
     <t>Lê Minh Thành</t>
   </si>
+  <si>
+    <t>Số tiền &gt;= 1.000.000</t>
+  </si>
+  <si>
+    <t>Password không dài quá 12 ký tự và phải trên 8 ký tự</t>
+  </si>
+  <si>
+    <t>Thêm thành công</t>
+  </si>
+  <si>
+    <t>Gửi thành công</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1369,7 +1366,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,13 +1393,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1589,7 +1586,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1672,6 +1669,13 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1714,22 +1718,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Functional Test Case v1.0" xfId="3"/>
-    <cellStyle name="Normal_Sheet1" xfId="4"/>
-    <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="5"/>
+    <cellStyle name="Normal_Functional Test Case v1.0" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2170,11 +2167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2192,13 +2189,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -2209,43 +2206,43 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
+      <c r="C5" s="142" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="141" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
+      <c r="C6" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -2254,10 +2251,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="140"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2331,7 @@
         <v>57</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="19.5" customHeight="1">
@@ -2354,7 +2351,7 @@
         <v>98</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1">
@@ -2409,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2440,39 +2437,39 @@
       <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145" t="str">
+      <c r="C3" s="147"/>
+      <c r="D3" s="148" t="str">
         <f>Cover!C4</f>
         <v>Sổ tiết kiệm Money Lover</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145" t="str">
+      <c r="C4" s="147"/>
+      <c r="D4" s="148" t="str">
         <f>Cover!C5</f>
         <v>ML_01</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="2:6" s="43" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="44"/>
@@ -2632,10 +2629,10 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" location="Module1!B10" display="Module1"/>
-    <hyperlink ref="D10" location="Module1!B14" display="Module1"/>
-    <hyperlink ref="D11" location="Module2!B10" display="Module2"/>
-    <hyperlink ref="D12" location="Module2!B14" display="Module2"/>
+    <hyperlink ref="D9" location="Module1!B10" display="Module1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D10" location="Module1!B14" display="Module1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D11" location="Module2!B10" display="Module2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D12" location="Module2!B14" display="Module2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2646,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2684,13 +2681,13 @@
       <c r="A2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -2702,13 +2699,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -2720,13 +2717,13 @@
       <c r="A4" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -2745,10 +2742,10 @@
       <c r="D5" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -2773,11 +2770,11 @@
         <f>COUNTIF(F$10:F$993,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="146">
+      <c r="E6" s="149">
         <f>COUNTA(A10:A993)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="146"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -2853,7 +2850,7 @@
       <c r="F10" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="153">
+      <c r="G10" s="138">
         <v>43747</v>
       </c>
       <c r="H10" s="93"/>
@@ -2892,14 +2889,14 @@
       <c r="F12" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="153">
+      <c r="G12" s="138">
         <v>43747</v>
       </c>
       <c r="H12" s="93"/>
       <c r="I12" s="94"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H12"/>
+  <autoFilter ref="A8:H12" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="5">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B2:F2"/>
@@ -2909,7 +2906,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F140">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F140" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2925,12 +2922,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2963,13 +2960,13 @@
       <c r="A2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -2981,13 +2978,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -2999,13 +2996,13 @@
       <c r="A4" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -3024,10 +3021,10 @@
       <c r="D5" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -3052,11 +3049,11 @@
         <f>COUNTIF(F$10:F$997,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="146">
+      <c r="E6" s="149">
         <f>COUNTA(A10:A997)</f>
         <v>7</v>
       </c>
-      <c r="F6" s="146"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -3132,7 +3129,7 @@
       <c r="F10" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="154">
+      <c r="G10" s="139">
         <v>43746</v>
       </c>
       <c r="H10" s="100"/>
@@ -3158,7 +3155,7 @@
       <c r="F11" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="154">
+      <c r="G11" s="139">
         <v>43746</v>
       </c>
       <c r="H11" s="100"/>
@@ -3173,7 +3170,7 @@
         <v>82</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D12" s="96" t="s">
         <v>86</v>
@@ -3184,7 +3181,7 @@
       <c r="F12" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="154">
+      <c r="G12" s="139">
         <v>43746</v>
       </c>
       <c r="H12" s="100"/>
@@ -3199,7 +3196,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" s="91" t="s">
         <v>87</v>
@@ -3210,7 +3207,7 @@
       <c r="F13" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="154">
+      <c r="G13" s="139">
         <v>43746</v>
       </c>
       <c r="H13" s="100"/>
@@ -3225,7 +3222,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" s="91" t="s">
         <v>90</v>
@@ -3236,7 +3233,7 @@
       <c r="F14" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="154">
+      <c r="G14" s="139">
         <v>43746</v>
       </c>
       <c r="H14" s="97"/>
@@ -3251,10 +3248,10 @@
         <v>92</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E15" s="91" t="s">
         <v>93</v>
@@ -3262,7 +3259,7 @@
       <c r="F15" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="153">
+      <c r="G15" s="138">
         <v>43747</v>
       </c>
       <c r="H15" s="97"/>
@@ -3303,13 +3300,13 @@
       <c r="F17" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="153">
+      <c r="G17" s="138">
         <v>43747</v>
       </c>
       <c r="H17" s="97"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H14"/>
+  <autoFilter ref="A8:H14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="5">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B2:F2"/>
@@ -3319,7 +3316,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F143">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F143" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3335,7 +3332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3353,15 +3350,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="101"/>
@@ -3377,14 +3374,14 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="150" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="150"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="104"/>
       <c r="H3" s="105"/>
     </row>
@@ -3392,14 +3389,14 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="145" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="150" t="s">
+      <c r="C4" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="148"/>
+      <c r="E4" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="150"/>
+      <c r="F4" s="153"/>
       <c r="G4" s="104"/>
       <c r="H4" s="105"/>
     </row>
@@ -3407,17 +3404,17 @@
       <c r="B5" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="145" t="str">
+      <c r="C5" s="148" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>ML_01_Test Report_v1.0</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="150" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="150"/>
+      <c r="F5" s="153"/>
       <c r="G5" s="104"/>
-      <c r="H5" s="155">
+      <c r="H5" s="140">
         <v>43746</v>
       </c>
     </row>
@@ -3426,14 +3423,14 @@
       <c r="B6" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="101"/>
@@ -3654,7 +3651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3666,11 +3663,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3678,7 +3675,7 @@
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.8">
@@ -3720,7 +3717,7 @@
         <v>101</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.8">
@@ -3734,49 +3731,49 @@
         <v>102</v>
       </c>
       <c r="D4" s="137" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="137" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="137" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="137" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="137" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="137" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="137" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="137" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="137" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
